--- a/build/resources/main/files/commonTemplate/Template_Individual.xlsx
+++ b/build/resources/main/files/commonTemplate/Template_Individual.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngjin\Desktop\IS4103\new AAU\2nd try\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngjin\Documents\IS4103Project\matchub-backend\build\resources\main\files\commonTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2AB30E-61BC-4C19-84DA-ED1EF66AE9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE30562-E97C-4109-8E6A-079C8D86532F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0BA97E34-54E0-4240-A653-0436B600733B}"/>
   </bookViews>
@@ -33,17 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>No.</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
     <t xml:space="preserve">Organization name (Optional) </t>
   </si>
   <si>
@@ -53,9 +47,6 @@
     <t>First Name*</t>
   </si>
   <si>
-    <t>Last Name*</t>
-  </si>
-  <si>
     <t>Email*</t>
   </si>
   <si>
@@ -68,14 +59,44 @@
     <t>SDG Target Relevance (Optional)</t>
   </si>
   <si>
-    <t>Target x.x</t>
+    <t>Last Name (Optional)</t>
+  </si>
+  <si>
+    <t>Country (Optional)</t>
+  </si>
+  <si>
+    <t>City (Optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE INPUT </t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Koh</t>
+  </si>
+  <si>
+    <t>joshuakoh@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A very passionate individual, eager to help out whenever I can </t>
+  </si>
+  <si>
+    <t>Target 5.1, Target 5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore </t>
+  </si>
+  <si>
+    <t>Singapore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,13 +104,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,14 +136,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -424,14 +466,15 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="13.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.90625" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="24.81640625" customWidth="1"/>
     <col min="7" max="7" width="16.1796875" customWidth="1"/>
@@ -445,42 +488,69 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I2" t="s">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{2CF17993-799E-4371-8440-696DED8B36B3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>